--- a/汇款时间价格.xlsx
+++ b/汇款时间价格.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F0EACB-1A57-43E4-BC63-2FA9B7F655B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA81CC5-059B-4E71-98FC-098D6795819C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DAF3C41E-8958-41DC-81D4-87EC46F6DC2F}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>商品</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -141,6 +141,10 @@
   </si>
   <si>
     <t>分两次汇 82.47 + 23.65 = 106.12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>琴*14+金*18</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -593,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D295EBF3-77A1-42D2-9ABF-C6F7A4A74A1C}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -604,6 +608,7 @@
     <col min="1" max="1" width="39" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" customWidth="1"/>
     <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
     <col min="5" max="5" width="16.21875" customWidth="1"/>
     <col min="6" max="6" width="15.21875" customWidth="1"/>
     <col min="7" max="7" width="29.44140625" customWidth="1"/>
@@ -804,124 +809,171 @@
         <v>7.18</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
         <v>7.31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14">
-        <v>6.26</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14">
-        <v>11</v>
-      </c>
-      <c r="E14" s="2">
-        <v>203000</v>
-      </c>
-      <c r="F14">
-        <v>1212.1099999999999</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>6.2</v>
+        <v>7.3</v>
       </c>
       <c r="C15">
-        <v>6.21</v>
-      </c>
-      <c r="D15">
-        <v>4</v>
+        <v>7.4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="E15" s="2">
-        <v>72000</v>
+        <v>100500</v>
       </c>
       <c r="F15">
-        <v>429.53</v>
+        <v>597.17999999999995</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B16">
-        <v>7.14</v>
-      </c>
-      <c r="C16">
-        <v>7.17</v>
+        <v>6.26</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="D16">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E16" s="2">
-        <v>37000</v>
+        <v>203000</v>
       </c>
       <c r="F16">
-        <v>223.65</v>
+        <v>1212.1099999999999</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>6.23</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>28</v>
+        <v>6.2</v>
+      </c>
+      <c r="C17">
+        <v>6.21</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E17" s="2">
-        <v>16000</v>
+        <v>72000</v>
       </c>
       <c r="F17">
-        <v>100.12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>29</v>
+        <v>429.53</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>7.14</v>
       </c>
       <c r="C18">
-        <v>6.6</v>
+        <v>7.17</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E18" s="2">
-        <v>83000</v>
+        <v>37000</v>
       </c>
       <c r="F18">
-        <v>494.24</v>
+        <v>223.65</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>6.23</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19" s="2">
+        <v>16000</v>
+      </c>
+      <c r="F19">
+        <v>100.12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20">
+        <v>6.6</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20" s="2">
+        <v>83000</v>
+      </c>
+      <c r="F20">
+        <v>494.24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>24</v>
       </c>
     </row>

--- a/汇款时间价格.xlsx
+++ b/汇款时间价格.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA81CC5-059B-4E71-98FC-098D6795819C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F826904-0634-4A78-8C1A-2BB08BF52234}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DAF3C41E-8958-41DC-81D4-87EC46F6DC2F}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>商品</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -63,88 +63,93 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>孙东杓kiss of the gun 反光手幅</t>
+  </si>
+  <si>
+    <t>孙东杓YOUTH 1set CHEERING反光手幅</t>
+  </si>
+  <si>
+    <t>孙东杓饭制魔术手幅</t>
+  </si>
+  <si>
+    <t>224+76</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送汇款截图时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">分两次汇 37000+13000 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3781.76+322.72=4104.48</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际转账</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金宇硕readyforthestage一代反光手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金宇硕 琴东贤 扇子透扇ins透卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金宇硕Upside Down二代反光手幅</t>
+  </si>
+  <si>
+    <t>金宇硕饭绘手机贴纸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金宇硕饭绘贴纸</t>
+  </si>
+  <si>
+    <t>金宇硕饭制金属徽章</t>
+  </si>
+  <si>
+    <t>金宇硕 金敏圭 20cm娃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.10/6.21/6.27</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分三次汇 641.29 + 535.41 + 35.41</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.24/6.25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分两次汇 82.47 + 23.65 = 106.12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>琴*14+金*18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我转的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>孙东杓Daisy days二代Cottencandy反光手幅</t>
-  </si>
-  <si>
-    <t>孙东杓kiss of the gun 反光手幅</t>
-  </si>
-  <si>
-    <t>孙东杓YOUTH 1set CHEERING反光手幅</t>
-  </si>
-  <si>
-    <t>孙东杓饭制魔术手幅</t>
-  </si>
-  <si>
-    <t>224+76</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送汇款截图时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">分两次汇 37000+13000 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3781.76+322.72=4104.48</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际转账</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金宇硕readyforthestage一代反光手幅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金宇硕 琴东贤 扇子透扇ins透卡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金宇硕Upside Down二代反光手幅</t>
-  </si>
-  <si>
-    <t>金宇硕饭绘手机贴纸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金宇硕饭绘贴纸</t>
-  </si>
-  <si>
-    <t>金宇硕饭制金属徽章</t>
-  </si>
-  <si>
-    <t>金宇硕 金敏圭 20cm娃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.10/6.21/6.27</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>分三次汇 641.29 + 535.41 + 35.41</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.24/6.25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>分两次汇 82.47 + 23.65 = 106.12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>琴*14+金*18</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -597,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D295EBF3-77A1-42D2-9ABF-C6F7A4A74A1C}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -615,7 +620,7 @@
     <col min="8" max="8" width="25.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -623,7 +628,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -635,18 +640,18 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>7.26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -669,7 +674,7 @@
         <v>600.12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -692,7 +697,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -715,29 +720,35 @@
         <v>134.65</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="7">
+        <v>7.2</v>
+      </c>
+      <c r="C6" s="7">
+        <v>7.21</v>
+      </c>
+      <c r="D6" s="5">
+        <v>17</v>
+      </c>
+      <c r="E6" s="8">
+        <v>294000</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1729</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1729.41</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="B6" s="4">
-        <v>7.2</v>
-      </c>
-      <c r="C6" s="4">
-        <v>7.21</v>
-      </c>
-      <c r="D6">
-        <v>17</v>
-      </c>
-      <c r="E6" s="2">
-        <v>294000</v>
-      </c>
-      <c r="F6">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="B7" s="7">
         <v>7.1</v>
@@ -755,12 +766,12 @@
         <v>4129</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="6">
         <v>7.8</v>
@@ -781,9 +792,9 @@
         <v>8558.82</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="4">
         <v>7.12</v>
@@ -798,24 +809,24 @@
         <v>50000</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10" s="4">
         <v>7.18</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -823,7 +834,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>2</v>
@@ -835,20 +846,20 @@
         <v>7</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>7.31</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>7.3</v>
@@ -857,7 +868,7 @@
         <v>7.4</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" s="2">
         <v>100500</v>
@@ -866,15 +877,15 @@
         <v>597.17999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>6.26</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16">
         <v>11</v>
@@ -886,12 +897,12 @@
         <v>1212.1099999999999</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>6.2</v>
@@ -911,7 +922,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>7.14</v>
@@ -931,13 +942,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>6.23</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19">
         <v>10</v>
@@ -949,15 +960,15 @@
         <v>100.12</v>
       </c>
       <c r="G19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20">
         <v>6.6</v>
@@ -974,7 +985,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>6.27</v>
+      </c>
+      <c r="C21">
+        <v>6.29</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21" s="2">
+        <v>93000</v>
+      </c>
+      <c r="F21">
+        <v>553.05999999999995</v>
       </c>
     </row>
   </sheetData>
